--- a/2019_neurips_vigil/results/Results paper VIGIL_v10.xlsx
+++ b/2019_neurips_vigil/results/Results paper VIGIL_v10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayram/research/Topic/Machine Intelligence/VQA/COG/COG_publications/2019_neurips_vigil/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE59D3E9-46B5-6940-A5FE-31F50BAADE62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233AFDDB-39C1-4E4D-B79A-089604D100CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="21120" xr2:uid="{3D9B9DCB-639E-0F40-9945-E2955BC58740}"/>
   </bookViews>
@@ -2707,6 +2707,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="N1:Q1"/>
@@ -2723,11 +2728,6 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
